--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,6 +865,386 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>40</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>19:34:22 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I13" t="n">
+        <v>40</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>19:34:34 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>40</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>19:34:46 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D15" t="n">
+        <v>80</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>40</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>19:34:57 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D16" t="n">
+        <v>80</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I16" t="n">
+        <v>40</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>19:35:08 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D17" t="n">
+        <v>80</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>19:35:19 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D18" t="n">
+        <v>80</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I18" t="n">
+        <v>40</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>19:35:30 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1018</v>
+      </c>
+      <c r="D19" t="n">
+        <v>80</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>shower rain</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I19" t="n">
+        <v>40</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>19:38:19 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D20" t="n">
+        <v>83</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>19:52:22 02-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D21" t="n">
+        <v>83</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>18.504</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>19:54:58 02-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,196 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D22" t="n">
+        <v>83</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>20</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>35.172</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>18:28:08 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D23" t="n">
+        <v>83</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>20</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>35.172</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>18:33:49 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D24" t="n">
+        <v>83</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>20</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>35.172</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>18:34:24 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D25" t="n">
+        <v>85</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>20</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>20</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>18:54:37 08-12-2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1019</v>
+      </c>
+      <c r="D26" t="n">
+        <v>85</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>18:54:58 08-12-2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
